--- a/data_excel/583.xlsx
+++ b/data_excel/583.xlsx
@@ -90,9 +90,6 @@
     <t>放進</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
@@ -115,7 +112,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pv</t>
+    <t>snv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -207,21 +208,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -231,7 +217,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -537,7 +523,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -683,29 +669,29 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -727,13 +713,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
